--- a/data/test6.xlsx
+++ b/data/test6.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\ODT\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{645E61AA-83B4-48D3-B05C-97B8E28B23FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C0624E5-25E3-4828-AFA9-99DEA03BAA41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="36885" yWindow="3465" windowWidth="16650" windowHeight="12795" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29610" yWindow="1830" windowWidth="20580" windowHeight="12180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="test5" sheetId="1" r:id="rId1"/>
@@ -661,7 +661,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2C4C5391-4912-4550-A4BB-05EF8F0C81A6}" type="CELLRANGE">
+                    <a:fld id="{7D2152D5-50B9-4DB4-9602-E6C051D0EB09}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -695,7 +695,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{043646C1-062C-4239-81F6-296420A615DD}" type="CELLRANGE">
+                    <a:fld id="{26C0AABB-1838-4A78-A7B2-6858911A200A}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -729,7 +729,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A8ED3C09-ED46-4FC3-A513-ADFAC0B59F4E}" type="CELLRANGE">
+                    <a:fld id="{1CE3835A-6560-4D14-AFB3-FAEE57B55436}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -763,7 +763,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E63AF2B0-7687-46CD-9DD8-58AA2B6D51BD}" type="CELLRANGE">
+                    <a:fld id="{DEEA7DED-638E-4439-8F62-2E34932A60D6}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -797,7 +797,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{440597DF-7D0F-4F2B-96AC-D8F7E243FC53}" type="CELLRANGE">
+                    <a:fld id="{FC12FCE5-B8AE-499F-90FA-796DC8954DD0}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -831,7 +831,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{481EFA27-EC17-421C-BEA0-22EA2CB50C4C}" type="CELLRANGE">
+                    <a:fld id="{DDEC0D98-4777-461D-9A02-C097F2647CC6}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -865,7 +865,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{FF19A044-5E24-4075-B0C3-A6B0BB93DDD1}" type="CELLRANGE">
+                    <a:fld id="{E9A40616-30E1-44D6-A157-555DC090D149}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -899,7 +899,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{BA3EBC83-7D1D-45B9-A3B4-5B3E17358D9D}" type="CELLRANGE">
+                    <a:fld id="{30CEB61D-2CEC-489F-8A5C-DD4A358B1728}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -933,7 +933,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{200A6E9F-CB3E-45C5-BBAB-2FDBF82A12FF}" type="CELLRANGE">
+                    <a:fld id="{22E1DAE9-D939-429C-A263-BDC91A8EE409}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -967,7 +967,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{9FBBBB35-99D4-4BCC-847B-81980FE60DDC}" type="CELLRANGE">
+                    <a:fld id="{A8D437DE-D38C-45F9-B59C-F9DF3AC23000}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1205,7 +1205,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2C94985D-5190-48F7-AF4A-0C6FE015371F}" type="CELLRANGE">
+                    <a:fld id="{21F20C4F-2B9B-4165-8B2F-13FCAAD7F465}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1239,7 +1239,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{9E5F3634-33A0-4CC5-BE01-136CDB9CA495}" type="CELLRANGE">
+                    <a:fld id="{E83CDEAD-B188-45E3-94D0-2B6E9E41E07D}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1273,7 +1273,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{911FEF58-1E18-4CAD-B28F-21FC78076BEA}" type="CELLRANGE">
+                    <a:fld id="{AD5810A9-EBAF-4FC2-9ED0-C2785116AE42}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1307,7 +1307,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{5D739163-A34A-4DAF-B906-B55376C3C316}" type="CELLRANGE">
+                    <a:fld id="{939AA97D-050A-4A47-AC81-811FA6B107C4}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1341,7 +1341,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{79C906B4-2A9A-4390-BE5D-99BF6A66CDA6}" type="CELLRANGE">
+                    <a:fld id="{CAC8F429-E4CC-4589-A8C1-D886CB8B0ED3}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1375,7 +1375,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{8C55792D-7C49-4D1B-AC54-561D04665908}" type="CELLRANGE">
+                    <a:fld id="{D2AB337C-B973-48DF-9DA2-74DCE2A42328}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1409,7 +1409,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{ADCC5C90-E1EC-4656-AEA4-1ED8E276DDBC}" type="CELLRANGE">
+                    <a:fld id="{FB802F1A-C13D-4182-92E1-D21CE294D913}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1443,7 +1443,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D09D122A-2EB7-4DE4-8E35-AC9CEC86503D}" type="CELLRANGE">
+                    <a:fld id="{8A074A23-7093-47E7-9E34-A1355AA4DC5D}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1477,7 +1477,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{5C0C50CC-A445-482A-B9DA-9659F2BBE786}" type="CELLRANGE">
+                    <a:fld id="{569FF65D-319E-4885-9B61-294DDA44C838}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1511,7 +1511,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F2F73918-4D1A-4B7F-8D05-40475827680C}" type="CELLRANGE">
+                    <a:fld id="{816A5050-B412-4E93-9608-9F8F685443BB}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1678,38 +1678,38 @@
           <c:extLst>
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
               <c15:datalabelsRange>
-                <c15:f>test5!$A$2:$A$11</c15:f>
+                <c15:f>test5!$A$12:$A$21</c15:f>
                 <c15:dlblRangeCache>
                   <c:ptCount val="10"/>
                   <c:pt idx="0">
-                    <c:v>0</c:v>
+                    <c:v>10</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>1</c:v>
+                    <c:v>11</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>2</c:v>
+                    <c:v>12</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>3</c:v>
+                    <c:v>13</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>4</c:v>
+                    <c:v>14</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>5</c:v>
+                    <c:v>15</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>6</c:v>
+                    <c:v>16</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>7</c:v>
+                    <c:v>17</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>8</c:v>
+                    <c:v>18</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>9</c:v>
+                    <c:v>19</c:v>
                   </c:pt>
                 </c15:dlblRangeCache>
               </c15:datalabelsRange>
@@ -1763,7 +1763,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{799A669D-D7BA-4E15-BBCE-6DAE8A05A02A}" type="CELLRANGE">
+                    <a:fld id="{707F1D86-7B05-4B7B-875D-DB48FA2D6216}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1797,7 +1797,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{30E5C28B-29C5-49B9-9BC3-F03246E4D0F4}" type="CELLRANGE">
+                    <a:fld id="{283160EE-D07C-4ADB-858A-488412776CB5}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1831,7 +1831,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0235785E-7412-458C-900E-F02B5A59237A}" type="CELLRANGE">
+                    <a:fld id="{3C3A53C9-8632-42E4-9EE6-3CEC3E470F99}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1865,7 +1865,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{09517789-8FCC-45DF-AC97-7BC6ED5261F7}" type="CELLRANGE">
+                    <a:fld id="{F3EF1FD0-F975-4C10-BB7F-CADC72ACD2F8}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1899,7 +1899,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{BABA6778-9573-4AEF-9742-FC6F1F18F48E}" type="CELLRANGE">
+                    <a:fld id="{38112BC6-729B-4208-9B13-A5B494C9DB37}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1933,7 +1933,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C50D1C4D-DA0F-4967-924B-4BA75FDAEA86}" type="CELLRANGE">
+                    <a:fld id="{3B336AAF-FA76-4455-BAD9-C65BF5358D4E}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1967,7 +1967,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{ECF5B881-3915-43F2-9C3E-23E2B45CCF58}" type="CELLRANGE">
+                    <a:fld id="{23D862BD-6AE7-4E9A-B643-D80855483B97}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2001,7 +2001,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A62E51E2-9598-4FD4-8751-A3FC565E5826}" type="CELLRANGE">
+                    <a:fld id="{9AB68297-F907-482E-BD6D-E3B92DABD8E1}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2035,7 +2035,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{02B87915-3602-4159-A639-6019F00FE552}" type="CELLRANGE">
+                    <a:fld id="{62E0DE8E-6E4E-4FEC-A986-6369C2250888}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2069,7 +2069,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{30F4E92E-5B35-4ABA-B736-F4E6F572A53B}" type="CELLRANGE">
+                    <a:fld id="{45AE6DCE-2019-4EA1-B326-BFA4B682D92C}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3378,7 +3378,7 @@
   <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="Q26" sqref="Q26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
